--- a/raw_data/20200818_saline/20200818_Sensor1_Test_17.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_17.xlsx
@@ -1,1459 +1,1875 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20EEE0A-55E7-4A39-9B3A-3EA33779F280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>14587.867803</v>
+        <v>14587.867802999999</v>
       </c>
       <c r="B2" s="1">
-        <v>4.052186</v>
+        <v>4.0521859999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>897.678000</v>
+        <v>897.678</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.778000</v>
+        <v>-200.77799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>14598.342221</v>
+        <v>14598.342221000001</v>
       </c>
       <c r="G2" s="1">
-        <v>4.055095</v>
+        <v>4.0550949999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>915.520000</v>
+        <v>915.52</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.699000</v>
+        <v>-169.69900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>14608.825630</v>
+        <v>14608.825629999999</v>
       </c>
       <c r="L2" s="1">
-        <v>4.058007</v>
+        <v>4.0580069999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>938.354000</v>
+        <v>938.35400000000004</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.850000</v>
+        <v>-119.85</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>14619.321505</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.060923</v>
+        <v>4.0609229999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>944.837000</v>
+        <v>944.83699999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.638000</v>
+        <v>-103.63800000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>14629.897472</v>
+        <v>14629.897472000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.063860</v>
+        <v>4.06386</v>
       </c>
       <c r="W2" s="1">
-        <v>951.327000</v>
+        <v>951.327</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.607800</v>
+        <v>-88.607799999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>14640.335972</v>
+        <v>14640.335972000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.066760</v>
+        <v>4.0667600000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.298000</v>
+        <v>958.298</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.068200</v>
+        <v>-77.068200000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>14651.232618</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.069787</v>
+        <v>4.0697869999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>962.980000</v>
+        <v>962.98</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.943400</v>
+        <v>-74.943399999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>14661.626248</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.072674</v>
+        <v>4.0726740000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.152000</v>
+        <v>970.15200000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.750300</v>
+        <v>-79.750299999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>14672.210875</v>
+        <v>14672.210875000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.075614</v>
+        <v>4.0756139999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.257000</v>
+        <v>978.25699999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.440100</v>
+        <v>-91.440100000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>14683.190844</v>
+        <v>14683.190844000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.078664</v>
+        <v>4.0786639999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.128000</v>
+        <v>988.12800000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.245000</v>
+        <v>-109.245</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>14694.272430</v>
+        <v>14694.272430000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.081742</v>
+        <v>4.0817420000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>996.400000</v>
+        <v>996.4</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.936000</v>
+        <v>-124.93600000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>14705.518751</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.084866</v>
+        <v>4.0848659999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.450000</v>
+        <v>-197.45</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>14716.356310</v>
+        <v>14716.356309999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.087877</v>
+        <v>4.0878769999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1101.440000</v>
+        <v>1101.44</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.388000</v>
+        <v>-315.38799999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>14726.747987</v>
+        <v>14726.747987000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.090763</v>
+        <v>4.0907629999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-501.905000</v>
+        <v>-501.90499999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>14738.301332</v>
+        <v>14738.301331999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.093973</v>
+        <v>4.0939730000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1331.770000</v>
+        <v>1331.77</v>
       </c>
       <c r="BV2" s="1">
-        <v>-707.439000</v>
+        <v>-707.43899999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>14749.336628</v>
+        <v>14749.336627999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.097038</v>
+        <v>4.0970380000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1469.090000</v>
+        <v>1469.09</v>
       </c>
       <c r="CA2" s="1">
-        <v>-926.235000</v>
+        <v>-926.23500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>14760.392613</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.100109</v>
+        <v>4.1001089999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.760000</v>
+        <v>1830.76</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1446.120000</v>
+        <v>-1446.12</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>14587.968395</v>
       </c>
       <c r="B3" s="1">
-        <v>4.052213</v>
+        <v>4.0522130000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>897.784000</v>
+        <v>897.78399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.775000</v>
+        <v>-200.77500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>14598.721163</v>
       </c>
       <c r="G3" s="1">
-        <v>4.055200</v>
+        <v>4.0552000000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>915.428000</v>
+        <v>915.428</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.732000</v>
+        <v>-169.732</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>14609.214989</v>
       </c>
       <c r="L3" s="1">
-        <v>4.058115</v>
+        <v>4.0581149999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>938.268000</v>
+        <v>938.26800000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.125000</v>
+        <v>-120.125</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>14619.701446</v>
+        <v>14619.701445999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.061028</v>
+        <v>4.0610280000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>944.892000</v>
+        <v>944.89200000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.643000</v>
+        <v>-103.643</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>14630.618882</v>
+        <v>14630.618882000001</v>
       </c>
       <c r="V3" s="1">
-        <v>4.064061</v>
+        <v>4.0640609999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>951.271000</v>
+        <v>951.27099999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.555100</v>
+        <v>-88.555099999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>14641.075043</v>
+        <v>14641.075043000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.066965</v>
+        <v>4.0669649999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.332000</v>
+        <v>958.33199999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.013800</v>
+        <v>-77.013800000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>14651.578790</v>
+        <v>14651.57879</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.069883</v>
+        <v>4.0698829999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>962.960000</v>
+        <v>962.96</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.903800</v>
+        <v>-74.903800000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>14662.008176</v>
+        <v>14662.008175999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.072780</v>
+        <v>4.0727799999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.167000</v>
+        <v>970.16700000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.747800</v>
+        <v>-79.747799999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>14672.586841</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.075719</v>
+        <v>4.0757190000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.236000</v>
+        <v>978.23599999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.432900</v>
+        <v>-91.432900000000004</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>14683.888718</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.078858</v>
+        <v>4.0788580000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.132000</v>
+        <v>988.13199999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.223000</v>
+        <v>-109.223</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>14695.028345</v>
+        <v>14695.028345000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.081952</v>
+        <v>4.0819520000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>996.406000</v>
+        <v>996.40599999999995</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.956000</v>
+        <v>-124.956</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>14705.627838</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.084897</v>
+        <v>4.0848969999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.444000</v>
+        <v>-197.44399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>14716.736735</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.087982</v>
+        <v>4.0879820000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.416000</v>
+        <v>-315.416</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>14727.176530</v>
+        <v>14727.176530000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.090882</v>
+        <v>4.0908819999999997</v>
       </c>
       <c r="BP3" s="1">
-        <v>1209.730000</v>
+        <v>1209.73</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-501.961000</v>
+        <v>-501.96100000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>14739.018513</v>
+        <v>14739.018513000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.094172</v>
+        <v>4.0941720000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-707.428000</v>
+        <v>-707.428</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>14749.800083</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.097167</v>
+        <v>4.0971669999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1469.150000</v>
+        <v>1469.15</v>
       </c>
       <c r="CA3" s="1">
-        <v>-926.332000</v>
+        <v>-926.33199999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>14761.395044</v>
+        <v>14761.395044000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.100388</v>
+        <v>4.1003879999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.320000</v>
+        <v>1830.32</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1447.220000</v>
+        <v>-1447.22</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>14588.320025</v>
+        <v>14588.320025000001</v>
       </c>
       <c r="B4" s="1">
-        <v>4.052311</v>
+        <v>4.0523110000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>897.841000</v>
+        <v>897.84100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.616000</v>
+        <v>-200.61600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>14599.067836</v>
       </c>
       <c r="G4" s="1">
-        <v>4.055297</v>
+        <v>4.0552970000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>915.457000</v>
+        <v>915.45699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.288000</v>
+        <v>-169.28800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>14609.555740</v>
+        <v>14609.55574</v>
       </c>
       <c r="L4" s="1">
-        <v>4.058210</v>
+        <v>4.0582099999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>938.166000</v>
+        <v>938.16600000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.941000</v>
+        <v>-119.941</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>14620.395806</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.061221</v>
+        <v>4.0612209999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>944.868000</v>
+        <v>944.86800000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.645000</v>
+        <v>-103.645</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>14630.964592</v>
       </c>
       <c r="V4" s="1">
-        <v>4.064157</v>
+        <v>4.0641569999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>951.274000</v>
+        <v>951.274</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.613200</v>
+        <v>-88.613200000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>14641.420227</v>
+        <v>14641.420227000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.067061</v>
+        <v>4.0670609999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.292000</v>
+        <v>958.29200000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.000900</v>
+        <v>-77.000900000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>14651.920533</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.069978</v>
+        <v>4.0699779999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.961000</v>
+        <v>962.96100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.903800</v>
+        <v>-74.903800000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>14662.665367</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.072963</v>
+        <v>4.0729629999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.174000</v>
+        <v>970.17399999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.738400</v>
+        <v>-79.738399999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>14673.257930</v>
+        <v>14673.25793</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.075905</v>
+        <v>4.0759049999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.251000</v>
+        <v>978.25099999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.432500</v>
+        <v>-91.432500000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>14684.304858</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.078974</v>
+        <v>4.0789739999999997</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.099000</v>
+        <v>988.09900000000005</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.244000</v>
+        <v>-109.244</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>14695.396363</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.082055</v>
+        <v>4.0820550000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>996.418000</v>
+        <v>996.41800000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.929000</v>
+        <v>-124.929</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>14705.981983</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.084995</v>
+        <v>4.0849950000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.457000</v>
+        <v>-197.45699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>14717.111246</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.088086</v>
+        <v>4.0880859999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.434000</v>
+        <v>-315.43400000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>14727.580769</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.090995</v>
+        <v>4.0909950000000004</v>
       </c>
       <c r="BP4" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.956000</v>
+        <v>-501.95600000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>14739.468418</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.094297</v>
+        <v>4.0942970000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.890000</v>
+        <v>1331.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-707.531000</v>
+        <v>-707.53099999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>14750.247443</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.097291</v>
+        <v>4.0972910000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1469.200000</v>
+        <v>1469.2</v>
       </c>
       <c r="CA4" s="1">
-        <v>-926.299000</v>
+        <v>-926.29899999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>14761.915363</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.100532</v>
+        <v>4.1005320000000003</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.500000</v>
+        <v>1831.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1447.660000</v>
+        <v>-1447.66</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>14588.658792</v>
       </c>
       <c r="B5" s="1">
-        <v>4.052405</v>
+        <v>4.0524050000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>897.669000</v>
+        <v>897.66899999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.655000</v>
+        <v>-200.655</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>14599.756809</v>
       </c>
       <c r="G5" s="1">
-        <v>4.055488</v>
+        <v>4.0554880000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>915.506000</v>
+        <v>915.50599999999997</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.294000</v>
+        <v>-169.29400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>14610.250638</v>
       </c>
       <c r="L5" s="1">
-        <v>4.058403</v>
+        <v>4.0584030000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>938.201000</v>
+        <v>938.20100000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.021000</v>
+        <v>-120.021</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>14620.742510</v>
+        <v>14620.74251</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.061317</v>
+        <v>4.0613169999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>944.853000</v>
+        <v>944.85299999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.657000</v>
+        <v>-103.657</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>14631.310768</v>
+        <v>14631.310767999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.064253</v>
+        <v>4.0642529999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>951.293000</v>
+        <v>951.29300000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.517400</v>
+        <v>-88.517399999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>14641.771890</v>
+        <v>14641.77189</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.067159</v>
+        <v>4.0671590000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.382000</v>
+        <v>958.38199999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.026500</v>
+        <v>-77.026499999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>14652.575749</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.070160</v>
+        <v>4.0701599999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.944000</v>
+        <v>962.94399999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.887100</v>
+        <v>-74.887100000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>14663.054760</v>
+        <v>14663.054760000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.073071</v>
+        <v>4.0730709999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.156000</v>
+        <v>970.15599999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.746100</v>
+        <v>-79.746099999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>14673.695896</v>
+        <v>14673.695895999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.076027</v>
+        <v>4.0760269999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.267000</v>
+        <v>978.26700000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.433100</v>
+        <v>-91.433099999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>14684.695214</v>
+        <v>14684.695213999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.079082</v>
+        <v>4.0790819999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.129000</v>
+        <v>988.12900000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.233000</v>
+        <v>-109.233</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>14695.753514</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.082154</v>
+        <v>4.0821540000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>996.404000</v>
+        <v>996.404</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.926000</v>
+        <v>-124.926</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>14706.343565</v>
+        <v>14706.343564999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.085095</v>
+        <v>4.0850949999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.455000</v>
+        <v>-197.45500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>14717.535294</v>
+        <v>14717.535293999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.088204</v>
+        <v>4.0882040000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1101.450000</v>
+        <v>1101.45</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.413000</v>
+        <v>-315.41300000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>14728.096618</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.091138</v>
+        <v>4.0911379999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.953000</v>
+        <v>-501.95299999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>14739.880562</v>
@@ -1462,482 +1878,482 @@
         <v>4.094411</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.960000</v>
+        <v>1331.96</v>
       </c>
       <c r="BV5" s="1">
-        <v>-707.509000</v>
+        <v>-707.50900000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>14750.677971</v>
+        <v>14750.677970999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.097411</v>
+        <v>4.0974110000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1469.130000</v>
+        <v>1469.13</v>
       </c>
       <c r="CA5" s="1">
-        <v>-926.303000</v>
+        <v>-926.303</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>14762.430210</v>
+        <v>14762.43021</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.100675</v>
+        <v>4.1006749999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.200000</v>
+        <v>1831.2</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1447.720000</v>
+        <v>-1447.72</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>14589.344759</v>
       </c>
       <c r="B6" s="1">
-        <v>4.052596</v>
+        <v>4.0525960000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>897.853000</v>
+        <v>897.85299999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.678000</v>
+        <v>-200.678</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>14600.101993</v>
       </c>
       <c r="G6" s="1">
-        <v>4.055584</v>
+        <v>4.0555839999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>915.407000</v>
+        <v>915.40700000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.424000</v>
+        <v>-169.42400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>14610.597371</v>
       </c>
       <c r="L6" s="1">
-        <v>4.058499</v>
+        <v>4.0584990000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>938.471000</v>
+        <v>938.471</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.880000</v>
+        <v>-119.88</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>14621.095663</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.061415</v>
+        <v>4.0614150000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>944.817000</v>
+        <v>944.81700000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.668000</v>
+        <v>-103.66800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>14631.985327</v>
       </c>
       <c r="V6" s="1">
-        <v>4.064440</v>
+        <v>4.0644400000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>951.313000</v>
+        <v>951.31299999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.596300</v>
+        <v>-88.596299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>14642.430577</v>
+        <v>14642.430576999999</v>
       </c>
       <c r="AA6" s="1">
         <v>4.067342</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.226000</v>
+        <v>958.226</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.023400</v>
+        <v>-77.023399999999995</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>14652.950266</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.070264</v>
+        <v>4.0702639999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.914000</v>
+        <v>962.91399999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.892200</v>
+        <v>-74.892200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>14663.405925</v>
+        <v>14663.405924999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.073168</v>
+        <v>4.0731679999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.162000</v>
+        <v>970.16200000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.754800</v>
+        <v>-79.754800000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>14674.055496</v>
+        <v>14674.055496000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.076127</v>
+        <v>4.0761269999999996</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.239000</v>
+        <v>978.23900000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.438600</v>
+        <v>-91.438599999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>14685.061721</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.079184</v>
+        <v>4.0791839999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.123000</v>
+        <v>988.12300000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.225000</v>
+        <v>-109.22499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>14696.184507</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.082273</v>
+        <v>4.0822729999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>996.408000</v>
+        <v>996.40800000000002</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.949000</v>
+        <v>-124.949</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>14706.759212</v>
+        <v>14706.759212000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.085211</v>
+        <v>4.0852110000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.960000</v>
+        <v>1034.96</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.447000</v>
+        <v>-197.447</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>14717.886990</v>
+        <v>14717.886990000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.088302</v>
+        <v>4.0883019999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1101.440000</v>
+        <v>1101.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.438000</v>
+        <v>-315.43799999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>14728.399168</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.091222</v>
+        <v>4.0912220000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.974000</v>
+        <v>-501.97399999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>14740.319025</v>
+        <v>14740.319025000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.094533</v>
+        <v>4.0945330000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.990000</v>
+        <v>1331.99</v>
       </c>
       <c r="BV6" s="1">
-        <v>-707.479000</v>
+        <v>-707.47900000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>14751.101058</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.097528</v>
+        <v>4.0975279999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1469.110000</v>
+        <v>1469.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-926.356000</v>
+        <v>-926.35599999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>14762.986196</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.100829</v>
+        <v>4.1008290000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.330000</v>
+        <v>1830.33</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1447.250000</v>
+        <v>-1447.25</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>14589.683528</v>
       </c>
       <c r="B7" s="1">
-        <v>4.052690</v>
+        <v>4.0526900000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>897.677000</v>
+        <v>897.67700000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.840000</v>
+        <v>-200.84</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>14600.444264</v>
       </c>
       <c r="G7" s="1">
-        <v>4.055679</v>
+        <v>4.0556789999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>915.280000</v>
+        <v>915.28</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.410000</v>
+        <v>-169.41</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>14610.941069</v>
       </c>
       <c r="L7" s="1">
-        <v>4.058595</v>
+        <v>4.0585950000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>938.171000</v>
+        <v>938.17100000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.911000</v>
+        <v>-119.911</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>14621.756332</v>
+        <v>14621.756332000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.061599</v>
+        <v>4.0615990000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>944.840000</v>
+        <v>944.84</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.646000</v>
+        <v>-103.646</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>14632.339967</v>
       </c>
       <c r="V7" s="1">
-        <v>4.064539</v>
+        <v>4.0645389999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>951.314000</v>
+        <v>951.31399999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.571300</v>
+        <v>-88.571299999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>14642.816961</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.067449</v>
+        <v>4.0674489999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.278000</v>
+        <v>958.27800000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.100500</v>
+        <v>-77.100499999999997</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>14653.293955</v>
+        <v>14653.293954999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.070359</v>
+        <v>4.0703589999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>962.956000</v>
+        <v>962.95600000000002</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.896100</v>
+        <v>-74.896100000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>14663.752629</v>
+        <v>14663.752629000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.073265</v>
+        <v>4.0732650000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.147000</v>
+        <v>970.14700000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.735100</v>
+        <v>-79.735100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>14674.415095</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.076226</v>
+        <v>4.0762260000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.250000</v>
+        <v>978.25</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.441100</v>
+        <v>-91.441100000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>14685.482330</v>
+        <v>14685.482330000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.079301</v>
+        <v>4.0793010000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.109000</v>
+        <v>988.10900000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.245000</v>
+        <v>-109.245</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>14696.471194</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.082353</v>
+        <v>4.0823530000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>996.412000</v>
+        <v>996.41200000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.962000</v>
+        <v>-124.962</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>14707.064289</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.085296</v>
+        <v>4.0852959999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.459000</v>
+        <v>-197.459</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>14718.261935</v>
@@ -1946,43 +2362,43 @@
         <v>4.088406</v>
       </c>
       <c r="BK7" s="1">
-        <v>1101.460000</v>
+        <v>1101.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.411000</v>
+        <v>-315.411</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>14728.818822</v>
+        <v>14728.818821999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.091339</v>
+        <v>4.0913389999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.971000</v>
+        <v>-501.971</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>14740.742145</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.094651</v>
+        <v>4.0946509999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="BV7" s="1">
-        <v>-707.425000</v>
+        <v>-707.42499999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>14751.522658</v>
@@ -1991,1178 +2407,1178 @@
         <v>4.097645</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1469.210000</v>
+        <v>1469.21</v>
       </c>
       <c r="CA7" s="1">
-        <v>-926.343000</v>
+        <v>-926.34299999999996</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>14763.515921</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.100977</v>
+        <v>4.1009770000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.650000</v>
+        <v>1831.65</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1447.470000</v>
+        <v>-1447.47</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>14590.027751</v>
       </c>
       <c r="B8" s="1">
-        <v>4.052785</v>
+        <v>4.0527850000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>897.764000</v>
+        <v>897.76400000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.850000</v>
+        <v>-200.85</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>14601.101959</v>
       </c>
       <c r="G8" s="1">
-        <v>4.055862</v>
+        <v>4.0558620000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>915.314000</v>
+        <v>915.31399999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.351000</v>
+        <v>-169.351</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>14611.597274</v>
       </c>
       <c r="L8" s="1">
-        <v>4.058777</v>
+        <v>4.0587770000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>938.112000</v>
+        <v>938.11199999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.037000</v>
+        <v>-120.03700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>14622.141756</v>
+        <v>14622.141756000001</v>
       </c>
       <c r="Q8" s="1">
         <v>4.061706</v>
       </c>
       <c r="R8" s="1">
-        <v>944.901000</v>
+        <v>944.90099999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.632000</v>
+        <v>-103.63200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>14632.684686</v>
+        <v>14632.684686000001</v>
       </c>
       <c r="V8" s="1">
         <v>4.064635</v>
       </c>
       <c r="W8" s="1">
-        <v>951.302000</v>
+        <v>951.30200000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.576700</v>
+        <v>-88.576700000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>14643.164162</v>
+        <v>14643.164161999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.067546</v>
+        <v>4.0675460000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.266000</v>
+        <v>958.26599999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.053700</v>
+        <v>-77.053700000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>14653.638178</v>
+        <v>14653.638177999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.070455</v>
+        <v>4.0704549999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.981000</v>
+        <v>962.98099999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.869400</v>
+        <v>-74.869399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>14664.168244</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.073380</v>
+        <v>4.0733800000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.144000</v>
+        <v>970.14400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.732100</v>
+        <v>-79.732100000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>14674.850087</v>
+        <v>14674.850087000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.076347</v>
+        <v>4.0763470000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.232000</v>
+        <v>978.23199999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.441000</v>
+        <v>-91.441000000000003</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>14685.789886</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.079386</v>
+        <v>4.0793860000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.114000</v>
+        <v>988.11400000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.246000</v>
+        <v>-109.246</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>14696.835755</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.082454</v>
+        <v>4.0824540000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>996.427000</v>
+        <v>996.42700000000002</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.929000</v>
+        <v>-124.929</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>14707.427323</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.085396</v>
+        <v>4.0853960000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.462000</v>
+        <v>-197.46199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>14718.637900</v>
+        <v>14718.6379</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.088511</v>
+        <v>4.0885109999999996</v>
       </c>
       <c r="BK8" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.423000</v>
+        <v>-315.423</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>14729.638541</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.091566</v>
+        <v>4.0915660000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.942000</v>
+        <v>-501.94200000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>14741.157295</v>
+        <v>14741.157295000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.094766</v>
+        <v>4.0947659999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1332.150000</v>
+        <v>1332.15</v>
       </c>
       <c r="BV8" s="1">
-        <v>-707.392000</v>
+        <v>-707.39200000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>14751.946240</v>
+        <v>14751.946239999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.097763</v>
+        <v>4.0977629999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1469.120000</v>
+        <v>1469.12</v>
       </c>
       <c r="CA8" s="1">
-        <v>-926.348000</v>
+        <v>-926.34799999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>14764.033248</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.101120</v>
+        <v>4.1011199999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.260000</v>
+        <v>1831.26</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1447.810000</v>
+        <v>-1447.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>14590.678006</v>
       </c>
       <c r="B9" s="1">
-        <v>4.052966</v>
+        <v>4.0529659999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>897.660000</v>
+        <v>897.66</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.743000</v>
+        <v>-200.74299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>14601.476409</v>
+        <v>14601.476409000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4.055966</v>
+        <v>4.0559659999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>915.794000</v>
+        <v>915.79399999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.307000</v>
+        <v>-169.30699999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>14611.983198</v>
       </c>
       <c r="L9" s="1">
-        <v>4.058884</v>
+        <v>4.0588839999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>938.301000</v>
+        <v>938.30100000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.975000</v>
+        <v>-119.97499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>14622.488428</v>
+        <v>14622.488428000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.061802</v>
+        <v>4.0618020000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>944.882000</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.645000</v>
+        <v>-103.645</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>14633.027422</v>
+        <v>14633.027421999999</v>
       </c>
       <c r="V9" s="1">
-        <v>4.064730</v>
+        <v>4.06473</v>
       </c>
       <c r="W9" s="1">
-        <v>951.308000</v>
+        <v>951.30799999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.541400</v>
+        <v>-88.541399999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>14643.512852</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.067642</v>
+        <v>4.0676420000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.339000</v>
+        <v>958.33900000000006</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.068100</v>
+        <v>-77.068100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>14654.061266</v>
+        <v>14654.061266000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.070573</v>
+        <v>4.0705730000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.941000</v>
+        <v>962.94100000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.888000</v>
+        <v>-74.888000000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>14664.460390</v>
+        <v>14664.46039</v>
       </c>
       <c r="AK9" s="1">
         <v>4.073461</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.142000</v>
+        <v>970.14200000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.731100</v>
+        <v>-79.731099999999998</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>14675.134294</v>
+        <v>14675.134293999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.076426</v>
+        <v>4.0764259999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.257000</v>
+        <v>978.25699999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.431900</v>
+        <v>-91.431899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>14686.158376</v>
+        <v>14686.158375999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.079488</v>
+        <v>4.0794879999999996</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.103000</v>
+        <v>988.10299999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.229000</v>
+        <v>-109.229</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>14697.187914</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.082552</v>
+        <v>4.0825519999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>996.398000</v>
+        <v>996.39800000000002</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.948000</v>
+        <v>-124.94799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>14707.789403</v>
+        <v>14707.789403000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.085497</v>
+        <v>4.0854970000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.463000</v>
+        <v>-197.46299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>14719.411165</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.088725</v>
+        <v>4.0887250000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1101.490000</v>
+        <v>1101.49</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.432000</v>
+        <v>-315.43200000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>14730.054814</v>
+        <v>14730.054813999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.091682</v>
+        <v>4.0916819999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.933000</v>
+        <v>-501.93299999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>14741.583822</v>
+        <v>14741.583822000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.094884</v>
+        <v>4.0948840000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1332.210000</v>
+        <v>1332.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-707.349000</v>
+        <v>-707.34900000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>14752.362882</v>
+        <v>14752.362881999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.097879</v>
+        <v>4.0978789999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1469.290000</v>
+        <v>1469.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-926.302000</v>
+        <v>-926.30200000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>14764.896287</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.101360</v>
+        <v>4.1013599999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.470000</v>
+        <v>1830.47</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1447.270000</v>
+        <v>-1447.27</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>14591.050997</v>
       </c>
       <c r="B10" s="1">
-        <v>4.053070</v>
+        <v>4.05307</v>
       </c>
       <c r="C10" s="1">
-        <v>897.846000</v>
+        <v>897.846</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.684000</v>
+        <v>-200.684</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>14601.821127</v>
+        <v>14601.821126999999</v>
       </c>
       <c r="G10" s="1">
-        <v>4.056061</v>
+        <v>4.0560609999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>915.522000</v>
+        <v>915.52200000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.886000</v>
+        <v>-169.886</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>14612.330361</v>
       </c>
       <c r="L10" s="1">
-        <v>4.058981</v>
+        <v>4.0589810000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>937.997000</v>
+        <v>937.99699999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.909000</v>
+        <v>-119.90900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>14622.836123</v>
+        <v>14622.836122999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.061899</v>
+        <v>4.0618990000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>944.882000</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.658000</v>
+        <v>-103.658</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>14633.454477</v>
+        <v>14633.454476999999</v>
       </c>
       <c r="V10" s="1">
-        <v>4.064848</v>
+        <v>4.0648479999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>951.282000</v>
+        <v>951.28200000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.565500</v>
+        <v>-88.5655</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>14643.935967</v>
+        <v>14643.935966999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.067760</v>
+        <v>4.0677599999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.304000</v>
+        <v>958.30399999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.111300</v>
+        <v>-77.1113</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>14654.335553</v>
+        <v>14654.335553000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.070649</v>
+        <v>4.0706490000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.970000</v>
+        <v>962.97</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.905200</v>
+        <v>-74.905199999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>14664.806101</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.073557</v>
+        <v>4.0735570000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.157000</v>
+        <v>970.15700000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.718000</v>
+        <v>-79.718000000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>14675.498854</v>
+        <v>14675.498853999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.076527</v>
+        <v>4.0765269999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.260000</v>
+        <v>978.26</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.440900</v>
+        <v>-91.440899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>14686.519002</v>
+        <v>14686.519002000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.079589</v>
+        <v>4.0795890000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.119000</v>
+        <v>988.11900000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.199000</v>
+        <v>-109.199</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>14697.907940</v>
+        <v>14697.907939999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.082752</v>
+        <v>4.0827520000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>996.388000</v>
+        <v>996.38800000000003</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.923000</v>
+        <v>-124.923</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>14708.514555</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.085698</v>
+        <v>4.0856979999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.464000</v>
+        <v>-197.464</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>14719.789115</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.088830</v>
+        <v>4.0888299999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1101.460000</v>
+        <v>1101.46</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.413000</v>
+        <v>-315.41300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>14730.453101</v>
+        <v>14730.453100999999</v>
       </c>
       <c r="BO10" s="1">
         <v>4.091793</v>
       </c>
       <c r="BP10" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.953000</v>
+        <v>-501.95299999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>14742.013854</v>
+        <v>14742.013854000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.095004</v>
+        <v>4.0950040000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-707.252000</v>
+        <v>-707.25199999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>14753.131711</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.098092</v>
+        <v>4.0980920000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1469.190000</v>
+        <v>1469.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-926.264000</v>
+        <v>-926.26400000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>14765.116548</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.101421</v>
+        <v>4.1014210000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.550000</v>
+        <v>1831.55</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1447.470000</v>
+        <v>-1447.47</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>14591.392276</v>
       </c>
       <c r="B11" s="1">
-        <v>4.053165</v>
+        <v>4.0531649999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>897.974000</v>
+        <v>897.97400000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.762000</v>
+        <v>-200.762</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>14602.171800</v>
+        <v>14602.1718</v>
       </c>
       <c r="G11" s="1">
-        <v>4.056159</v>
+        <v>4.0561590000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>915.164000</v>
+        <v>915.16399999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.505000</v>
+        <v>-169.505</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>14612.673097</v>
+        <v>14612.673097000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.059076</v>
+        <v>4.0590760000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>938.276000</v>
+        <v>938.27599999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.014000</v>
+        <v>-120.014</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>14623.251771</v>
+        <v>14623.251770999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.062014</v>
+        <v>4.0620139999999996</v>
       </c>
       <c r="R11" s="1">
-        <v>944.882000</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.665000</v>
+        <v>-103.66500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>14633.717886</v>
       </c>
       <c r="V11" s="1">
-        <v>4.064922</v>
+        <v>4.0649220000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>951.249000</v>
+        <v>951.24900000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.548600</v>
+        <v>-88.548599999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>14644.211710</v>
+        <v>14644.21171</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.067837</v>
+        <v>4.0678369999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.333000</v>
+        <v>958.33299999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.126600</v>
+        <v>-77.126599999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>14654.678289</v>
+        <v>14654.678288999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.070744</v>
+        <v>4.0707440000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.954000</v>
+        <v>962.95399999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.867900</v>
+        <v>-74.867900000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>14665.157268</v>
+        <v>14665.157268000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.073655</v>
+        <v>4.0736549999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.148000</v>
+        <v>970.14800000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.729800</v>
+        <v>-79.729799999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>14675.856469</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.076627</v>
+        <v>4.0766270000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.237000</v>
+        <v>978.23699999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.433700</v>
+        <v>-91.433700000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>14687.250072</v>
+        <v>14687.250072000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.079792</v>
+        <v>4.0797920000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.124000</v>
+        <v>988.12400000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.207000</v>
+        <v>-109.20699999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>14698.266712</v>
+        <v>14698.266712000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.082852</v>
+        <v>4.0828519999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>996.407000</v>
+        <v>996.40700000000004</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.945000</v>
+        <v>-124.94499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>14708.892045</v>
+        <v>14708.892045000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.085803</v>
+        <v>4.0858030000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.455000</v>
+        <v>-197.45500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>14720.161643</v>
+        <v>14720.161642999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.088934</v>
+        <v>4.0889340000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1101.490000</v>
+        <v>1101.49</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.398000</v>
+        <v>-315.39800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>14731.179244</v>
+        <v>14731.179244000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.091994</v>
+        <v>4.0919939999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.977000</v>
+        <v>-501.97699999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>14742.741521</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.095206</v>
+        <v>4.0952060000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-707.144000</v>
+        <v>-707.14400000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>14753.268607</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.098130</v>
+        <v>4.0981300000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1469.200000</v>
+        <v>1469.2</v>
       </c>
       <c r="CA11" s="1">
-        <v>-926.309000</v>
+        <v>-926.30899999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>14765.632350</v>
+        <v>14765.63235</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.101565</v>
+        <v>4.1015649999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1831.470000</v>
+        <v>1831.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1446.420000</v>
+        <v>-1446.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>14591.734030</v>
+        <v>14591.73403</v>
       </c>
       <c r="B12" s="1">
-        <v>4.053259</v>
+        <v>4.0532589999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>897.748000</v>
+        <v>897.74800000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.683000</v>
+        <v>-200.68299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>14602.588966</v>
+        <v>14602.588965999999</v>
       </c>
       <c r="G12" s="1">
-        <v>4.056275</v>
+        <v>4.0562750000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>915.198000</v>
+        <v>915.19799999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.488000</v>
+        <v>-169.488</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>14613.153224</v>
       </c>
       <c r="L12" s="1">
-        <v>4.059209</v>
+        <v>4.0592090000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>938.203000</v>
+        <v>938.20299999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.012000</v>
+        <v>-120.012</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>14623.539979</v>
+        <v>14623.539978999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.062094</v>
+        <v>4.0620940000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>944.860000</v>
+        <v>944.86</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.614000</v>
+        <v>-103.614</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>14634.063565</v>
       </c>
       <c r="V12" s="1">
-        <v>4.065018</v>
+        <v>4.0650180000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>951.338000</v>
+        <v>951.33799999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.574300</v>
+        <v>-88.574299999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>14644.560894</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.067934</v>
+        <v>4.0679340000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.222000</v>
+        <v>958.22199999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.926800</v>
+        <v>-76.9268</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>14655.022512</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.070840</v>
+        <v>4.0708399999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.964000</v>
+        <v>962.96400000000006</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.877300</v>
+        <v>-74.877300000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>14665.852162</v>
+        <v>14665.852161999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.073848</v>
+        <v>4.0738479999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.147000</v>
+        <v>970.14700000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.744300</v>
+        <v>-79.744299999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>14676.583605</v>
@@ -3171,73 +3587,73 @@
         <v>4.076829</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.247000</v>
+        <v>978.24699999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.440400</v>
+        <v>-91.440399999999997</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>14687.614631</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.079893</v>
+        <v>4.0798930000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.143000</v>
+        <v>988.14300000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.226000</v>
+        <v>-109.226</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>14698.625319</v>
+        <v>14698.625319000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.082951</v>
+        <v>4.0829510000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>996.400000</v>
+        <v>996.4</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>14709.254585</v>
+        <v>14709.254585000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.085904</v>
+        <v>4.0859040000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.464000</v>
+        <v>-197.464</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>14720.843609</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.089123</v>
+        <v>4.0891229999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1101.450000</v>
+        <v>1101.45</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>14731.691115</v>
@@ -3246,482 +3662,482 @@
         <v>4.092136</v>
       </c>
       <c r="BP12" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.962000</v>
+        <v>-501.96199999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>14742.856556</v>
+        <v>14742.856556000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.095238</v>
+        <v>4.0952380000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="BV12" s="1">
-        <v>-707.084000</v>
+        <v>-707.08399999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>14753.687230</v>
+        <v>14753.68723</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.098246</v>
+        <v>4.0982459999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1469.130000</v>
+        <v>1469.13</v>
       </c>
       <c r="CA12" s="1">
-        <v>-926.268000</v>
+        <v>-926.26800000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>14766.153150</v>
+        <v>14766.15315</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.101709</v>
+        <v>4.1017089999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.410000</v>
+        <v>1830.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1446.820000</v>
+        <v>-1446.82</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>14592.156580</v>
+        <v>14592.156580000001</v>
       </c>
       <c r="B13" s="1">
-        <v>4.053377</v>
+        <v>4.0533770000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>897.852000</v>
+        <v>897.85199999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.621000</v>
+        <v>-200.62100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14602.884550</v>
+        <v>14602.884550000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.056357</v>
+        <v>4.0563570000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>915.434000</v>
+        <v>915.43399999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.634000</v>
+        <v>-169.63399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>14613.376456</v>
       </c>
       <c r="L13" s="1">
-        <v>4.059271</v>
+        <v>4.0592709999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>938.080000</v>
+        <v>938.08</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.041000</v>
+        <v>-120.041</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>14623.889165</v>
+        <v>14623.889165000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.062191</v>
+        <v>4.0621910000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>944.884000</v>
+        <v>944.88400000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.624000</v>
+        <v>-103.624</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>14634.405804</v>
       </c>
       <c r="V13" s="1">
-        <v>4.065113</v>
+        <v>4.0651130000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>951.295000</v>
+        <v>951.29499999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.595900</v>
+        <v>-88.5959</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>14644.911567</v>
+        <v>14644.911566999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.068031</v>
+        <v>4.0680310000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.324000</v>
+        <v>958.32399999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.093500</v>
+        <v>-77.093500000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>14655.708516</v>
+        <v>14655.708516000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.071030</v>
+        <v>4.0710300000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.931000</v>
+        <v>962.93100000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.902800</v>
+        <v>-74.902799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>14666.203858</v>
+        <v>14666.203858000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.073946</v>
+        <v>4.0739460000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.155000</v>
+        <v>970.15499999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.754700</v>
+        <v>-79.7547</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>14676.965028</v>
+        <v>14676.965028000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.076935</v>
+        <v>4.0769349999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.250000</v>
+        <v>978.25</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.424800</v>
+        <v>-91.424800000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>14687.977206</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.079994</v>
+        <v>4.0799940000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.112000</v>
+        <v>988.11199999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.214000</v>
+        <v>-109.214</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>14699.289499</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.083136</v>
+        <v>4.0831359999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>996.391000</v>
+        <v>996.39099999999996</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.946000</v>
+        <v>-124.946</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>14709.922202</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.086090</v>
+        <v>4.0860900000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.458000</v>
+        <v>-197.458</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>14720.956059</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.089154</v>
+        <v>4.0891539999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1101.470000</v>
+        <v>1101.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>14732.113708</v>
+        <v>14732.113708000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.092254</v>
+        <v>4.0922539999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.937000</v>
+        <v>-501.93700000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>14743.294028</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.095359</v>
+        <v>4.0953590000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="BV13" s="1">
-        <v>-707.013000</v>
+        <v>-707.01300000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>14754.108798</v>
+        <v>14754.108797999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.098364</v>
+        <v>4.0983640000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1469.240000</v>
+        <v>1469.24</v>
       </c>
       <c r="CA13" s="1">
-        <v>-926.282000</v>
+        <v>-926.28200000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>14766.673453</v>
+        <v>14766.673452999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.101854</v>
+        <v>4.1018540000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.640000</v>
+        <v>1830.64</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1446.250000</v>
+        <v>-1446.25</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>14592.435865</v>
+        <v>14592.435864999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.053454</v>
+        <v>4.0534540000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>897.860000</v>
+        <v>897.86</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.776000</v>
+        <v>-200.77600000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>14603.233249</v>
+        <v>14603.233249000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.056454</v>
+        <v>4.0564539999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>915.643000</v>
+        <v>915.64300000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.773000</v>
+        <v>-169.773</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>14613.723624</v>
       </c>
       <c r="L14" s="1">
-        <v>4.059368</v>
+        <v>4.0593680000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>938.384000</v>
+        <v>938.38400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.876000</v>
+        <v>-119.876</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>14624.238351</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.062288</v>
+        <v>4.0622879999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>944.891000</v>
+        <v>944.89099999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.620000</v>
+        <v>-103.62</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>14635.090779</v>
       </c>
       <c r="V14" s="1">
-        <v>4.065303</v>
+        <v>4.0653030000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>951.345000</v>
+        <v>951.34500000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.496400</v>
+        <v>-88.496399999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>14645.624319</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.068229</v>
+        <v>4.0682289999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.273000</v>
+        <v>958.27300000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.037000</v>
+        <v>-77.037000000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>14656.049727</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.071125</v>
+        <v>4.0711250000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.961000</v>
+        <v>962.96100000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.881900</v>
+        <v>-74.881900000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>14666.552019</v>
+        <v>14666.552019000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.074042</v>
+        <v>4.0740420000000004</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.156000</v>
+        <v>970.15599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.749600</v>
+        <v>-79.749600000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>14677.320692</v>
+        <v>14677.320691999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.077034</v>
+        <v>4.0770340000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.267000</v>
+        <v>978.26700000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.426400</v>
+        <v>-91.426400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>14688.648292</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.080180</v>
+        <v>4.0801800000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.128000</v>
+        <v>988.12800000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.212000</v>
+        <v>-109.212</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>14699.737350</v>
+        <v>14699.737349999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.083260</v>
+        <v>4.0832600000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>996.398000</v>
+        <v>996.39800000000002</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.931000</v>
+        <v>-124.931</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>14710.371079</v>
@@ -3730,1026 +4146,1026 @@
         <v>4.086214</v>
       </c>
       <c r="BF14" s="1">
-        <v>1034.960000</v>
+        <v>1034.96</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.451000</v>
+        <v>-197.45099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>14721.313353</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.089254</v>
+        <v>4.0892540000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1101.470000</v>
+        <v>1101.47</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.388000</v>
+        <v>-315.38799999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>14732.508522</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.092363</v>
+        <v>4.0923629999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-502.007000</v>
+        <v>-502.00700000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>14743.725051</v>
+        <v>14743.725050999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.095479</v>
+        <v>4.0954790000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1332.010000</v>
+        <v>1332.01</v>
       </c>
       <c r="BV14" s="1">
-        <v>-707.034000</v>
+        <v>-707.03399999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>14754.562637</v>
+        <v>14754.562637000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.098490</v>
+        <v>4.09849</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1469.190000</v>
+        <v>1469.19</v>
       </c>
       <c r="CA14" s="1">
-        <v>-926.351000</v>
+        <v>-926.351</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>14767.222526</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.102006</v>
+        <v>4.1020060000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.490000</v>
+        <v>1831.49</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1446.310000</v>
+        <v>-1446.31</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>14592.777076</v>
       </c>
       <c r="B15" s="1">
-        <v>4.053549</v>
+        <v>4.0535490000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>897.770000</v>
+        <v>897.77</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.694000</v>
+        <v>-200.69399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>14603.574981</v>
       </c>
       <c r="G15" s="1">
-        <v>4.056549</v>
+        <v>4.0565490000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>915.395000</v>
+        <v>915.39499999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.071000</v>
+        <v>-170.071</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>14614.412567</v>
+        <v>14614.412566999999</v>
       </c>
       <c r="L15" s="1">
-        <v>4.059559</v>
+        <v>4.0595590000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>938.156000</v>
+        <v>938.15599999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.057000</v>
+        <v>-120.057</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>14624.936680</v>
+        <v>14624.936680000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.062482</v>
+        <v>4.0624820000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>944.898000</v>
+        <v>944.89800000000002</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.648000</v>
+        <v>-103.648</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>14635.435035</v>
       </c>
       <c r="V15" s="1">
-        <v>4.065399</v>
+        <v>4.0653990000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>951.289000</v>
+        <v>951.28899999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.551500</v>
+        <v>-88.551500000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>14645.955186</v>
+        <v>14645.955185999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.068321</v>
+        <v>4.0683210000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.296000</v>
+        <v>958.29600000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.012600</v>
+        <v>-77.012600000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>14656.395128</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.071221</v>
+        <v>4.0712210000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.992000</v>
+        <v>962.99199999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.913500</v>
+        <v>-74.913499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>14667.210208</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.074225</v>
+        <v>4.0742250000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.146000</v>
+        <v>970.14599999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.720300</v>
+        <v>-79.720299999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>14677.987284</v>
+        <v>14677.987284000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.077219</v>
+        <v>4.0772190000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.256000</v>
+        <v>978.25599999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.447500</v>
+        <v>-91.447500000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>14689.070389</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.080297</v>
+        <v>4.0802969999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.102000</v>
+        <v>988.10199999999998</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.228000</v>
+        <v>-109.22799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>14700.092981</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.083359</v>
+        <v>4.0833589999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>996.396000</v>
+        <v>996.39599999999996</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.934000</v>
+        <v>-124.934</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>14710.732663</v>
+        <v>14710.732663000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.086315</v>
+        <v>4.0863149999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1034.940000</v>
+        <v>1034.94</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.457000</v>
+        <v>-197.45699999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>14721.692302</v>
+        <v>14721.692301999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>4.089359</v>
       </c>
       <c r="BK15" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.420000</v>
+        <v>-315.42</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>14732.929167</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.092480</v>
+        <v>4.0924800000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.933000</v>
+        <v>-501.93299999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>14744.147679</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.095597</v>
+        <v>4.0955969999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.880000</v>
+        <v>1331.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-706.956000</v>
+        <v>-706.95600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>14755.007548</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.098613</v>
+        <v>4.0986130000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.180000</v>
+        <v>1469.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-926.224000</v>
+        <v>-926.22400000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>14767.755259</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.102154</v>
+        <v>4.1021539999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.250000</v>
+        <v>1830.25</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1446.740000</v>
+        <v>-1446.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>14593.116835</v>
+        <v>14593.116835000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.053644</v>
+        <v>4.0536440000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>897.851000</v>
+        <v>897.851</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.620000</v>
+        <v>-200.62</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>14604.267395</v>
+        <v>14604.267395000001</v>
       </c>
       <c r="G16" s="1">
-        <v>4.056741</v>
+        <v>4.0567409999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>915.461000</v>
+        <v>915.46100000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>14614.757782</v>
+        <v>14614.757782000001</v>
       </c>
       <c r="L16" s="1">
-        <v>4.059655</v>
+        <v>4.0596550000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>938.015000</v>
+        <v>938.01499999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.928000</v>
+        <v>-119.928</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>14625.284904</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.062579</v>
+        <v>4.0625790000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>944.896000</v>
+        <v>944.89599999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.658000</v>
+        <v>-103.658</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>14635.780218</v>
       </c>
       <c r="V16" s="1">
-        <v>4.065495</v>
+        <v>4.0654950000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>951.179000</v>
+        <v>951.17899999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.500500</v>
+        <v>-88.500500000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>14646.610860</v>
+        <v>14646.610860000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.068503</v>
+        <v>4.0685029999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.332000</v>
+        <v>958.33199999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.038900</v>
+        <v>-77.038899999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>14657.048670</v>
+        <v>14657.04867</v>
       </c>
       <c r="AF16" s="1">
         <v>4.071402</v>
       </c>
       <c r="AG16" s="1">
-        <v>962.972000</v>
+        <v>962.97199999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.891400</v>
+        <v>-74.891400000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>14667.596096</v>
+        <v>14667.596095999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.074332</v>
+        <v>4.0743320000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.133000</v>
+        <v>970.13300000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.744900</v>
+        <v>-79.744900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>14678.398466</v>
+        <v>14678.398466000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.077333</v>
+        <v>4.0773330000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.255000</v>
+        <v>978.255</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.452200</v>
+        <v>-91.452200000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>14689.437923</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.080399</v>
+        <v>4.0803989999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.141000</v>
+        <v>988.14099999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.184000</v>
+        <v>-109.184</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>14700.453574</v>
+        <v>14700.453573999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.083459</v>
+        <v>4.0834590000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>996.403000</v>
+        <v>996.40300000000002</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.957000</v>
+        <v>-124.95699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>14711.092759</v>
+        <v>14711.092758999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.086415</v>
+        <v>4.0864149999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.440000</v>
+        <v>-197.44</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>14722.121304</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.089478</v>
+        <v>4.0894779999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.416000</v>
+        <v>-315.416</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>14733.326427</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.092591</v>
+        <v>4.0925909999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.959000</v>
+        <v>-501.959</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>14744.565772</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.095713</v>
+        <v>4.0957129999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="BV16" s="1">
-        <v>-706.939000</v>
+        <v>-706.93899999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>14755.444028</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.098734</v>
+        <v>4.0987340000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.110000</v>
+        <v>1469.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-926.274000</v>
+        <v>-926.274</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>14768.271067</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.102298</v>
+        <v>4.1022980000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.980000</v>
+        <v>1830.98</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1447.780000</v>
+        <v>-1447.78</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>14593.805283</v>
       </c>
       <c r="B17" s="1">
-        <v>4.053835</v>
+        <v>4.0538350000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>897.758000</v>
+        <v>897.75800000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.702000</v>
+        <v>-200.702</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>14604.609635</v>
+        <v>14604.609635000001</v>
       </c>
       <c r="G17" s="1">
-        <v>4.056836</v>
+        <v>4.0568359999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>915.253000</v>
+        <v>915.25300000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.711000</v>
+        <v>-169.71100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>14615.106470</v>
+        <v>14615.106470000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.059752</v>
+        <v>4.0597519999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>938.301000</v>
+        <v>938.30100000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.036000</v>
+        <v>-120.036</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>14625.634055</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.062676</v>
+        <v>4.0626759999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>944.863000</v>
+        <v>944.86300000000006</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.628000</v>
+        <v>-103.628</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>14636.429496</v>
+        <v>14636.429496000001</v>
       </c>
       <c r="V17" s="1">
-        <v>4.065675</v>
+        <v>4.0656749999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>951.257000</v>
+        <v>951.25699999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.597300</v>
+        <v>-88.597300000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>14647.002700</v>
+        <v>14647.002699999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.068612</v>
+        <v>4.0686119999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.280000</v>
+        <v>958.28</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.033300</v>
+        <v>-77.033299999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>14657.425171</v>
+        <v>14657.425171000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.071507</v>
+        <v>4.0715070000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.930000</v>
+        <v>962.93</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.923000</v>
+        <v>-74.923000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>14667.946767</v>
+        <v>14667.946766999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.074430</v>
+        <v>4.0744300000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.139000</v>
+        <v>970.13900000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.720000</v>
+        <v>-79.72</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>14678.784353</v>
+        <v>14678.784352999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.077440</v>
+        <v>4.0774400000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.237000</v>
+        <v>978.23699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.426500</v>
+        <v>-91.426500000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>14689.801987</v>
+        <v>14689.801987000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.080501</v>
+        <v>4.0805009999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.124000</v>
+        <v>988.12400000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.200000</v>
+        <v>-109.2</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>14700.879673</v>
+        <v>14700.879672999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.083578</v>
+        <v>4.0835780000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>996.420000</v>
+        <v>996.42</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.950000</v>
+        <v>-124.95</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>14711.812455</v>
+        <v>14711.812454999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.086615</v>
+        <v>4.0866150000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.940000</v>
+        <v>1034.94</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.479000</v>
+        <v>-197.47900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>14722.451144</v>
+        <v>14722.451144000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.089570</v>
+        <v>4.0895700000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1101.430000</v>
+        <v>1101.43</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.436000</v>
+        <v>-315.43599999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>14733.744089</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.092707</v>
+        <v>4.0927069999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1209.700000</v>
+        <v>1209.7</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.983000</v>
+        <v>-501.983</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>14744.990873</v>
+        <v>14744.990873000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.095831</v>
+        <v>4.0958310000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1331.750000</v>
+        <v>1331.75</v>
       </c>
       <c r="BV17" s="1">
-        <v>-707.059000</v>
+        <v>-707.05899999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>14755.903852</v>
+        <v>14755.903851999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.098862</v>
+        <v>4.0988619999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1469.220000</v>
+        <v>1469.22</v>
       </c>
       <c r="CA17" s="1">
-        <v>-926.338000</v>
+        <v>-926.33799999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>14768.789883</v>
+        <v>14768.789882999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.102442</v>
+        <v>4.1024419999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.830000</v>
+        <v>1831.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1446.930000</v>
+        <v>-1446.93</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>14594.144545</v>
+        <v>14594.144544999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.053929</v>
+        <v>4.0539290000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>897.768000</v>
+        <v>897.76800000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.796000</v>
+        <v>-200.79599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>14604.954354</v>
       </c>
       <c r="G18" s="1">
-        <v>4.056932</v>
+        <v>4.0569319999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>915.744000</v>
+        <v>915.74400000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.401000</v>
+        <v>-169.40100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>14615.756726</v>
       </c>
       <c r="L18" s="1">
-        <v>4.059932</v>
+        <v>4.0599319999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>938.345000</v>
+        <v>938.34500000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.159000</v>
+        <v>-120.15900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>14626.296247</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.062860</v>
+        <v>4.0628599999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>944.896000</v>
+        <v>944.89599999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.613000</v>
+        <v>-103.613</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>14636.808457</v>
+        <v>14636.808456999999</v>
       </c>
       <c r="V18" s="1">
-        <v>4.065780</v>
+        <v>4.0657800000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>951.261000</v>
+        <v>951.26099999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.558900</v>
+        <v>-88.558899999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>14647.350395</v>
+        <v>14647.350394999999</v>
       </c>
       <c r="AA18" s="1">
         <v>4.068708</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.352000</v>
+        <v>958.35199999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.006200</v>
+        <v>-77.006200000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>14657.771837</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.071603</v>
+        <v>4.0716029999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>962.950000</v>
+        <v>962.95</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.868000</v>
+        <v>-74.867999999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>14668.294992</v>
+        <v>14668.294991999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.074526</v>
+        <v>4.0745259999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.136000</v>
+        <v>970.13599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.722800</v>
+        <v>-79.722800000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>14679.204961</v>
+        <v>14679.204960999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.077557</v>
+        <v>4.0775569999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.228000</v>
+        <v>978.22799999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.449400</v>
+        <v>-91.449399999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>14690.227058</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.080619</v>
+        <v>4.0806190000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.144000</v>
+        <v>988.14400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.181000</v>
+        <v>-109.181</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>14701.172276</v>
+        <v>14701.172275999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.083659</v>
+        <v>4.0836589999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>996.411000</v>
+        <v>996.41099999999994</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.943000</v>
+        <v>-124.943</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>14712.199831</v>
@@ -4758,58 +5174,58 @@
         <v>4.086722</v>
       </c>
       <c r="BF18" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.459000</v>
+        <v>-197.459</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>14722.848936</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.089680</v>
+        <v>4.0896800000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1101.470000</v>
+        <v>1101.47</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.413000</v>
+        <v>-315.41300000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>14734.143833</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.092818</v>
+        <v>4.0928180000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.976000</v>
+        <v>-501.976</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>14745.415417</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.095949</v>
+        <v>4.0959490000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1331.650000</v>
+        <v>1331.65</v>
       </c>
       <c r="BV18" s="1">
-        <v>-707.055000</v>
+        <v>-707.05499999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>14756.348763</v>
@@ -4818,255 +5234,255 @@
         <v>4.098986</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1469.210000</v>
+        <v>1469.21</v>
       </c>
       <c r="CA18" s="1">
-        <v>-926.258000</v>
+        <v>-926.25800000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>14769.306218</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.102585</v>
+        <v>4.1025850000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.930000</v>
+        <v>1831.93</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1447.210000</v>
+        <v>-1447.21</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>14594.485806</v>
+        <v>14594.485806000001</v>
       </c>
       <c r="B19" s="1">
-        <v>4.054024</v>
+        <v>4.0540240000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>897.800000</v>
+        <v>897.8</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.777000</v>
+        <v>-200.77699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>14605.611090</v>
+        <v>14605.61109</v>
       </c>
       <c r="G19" s="1">
-        <v>4.057114</v>
+        <v>4.0571140000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>915.153000</v>
+        <v>915.15300000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.685000</v>
+        <v>-169.685</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>14616.142116</v>
+        <v>14616.142116000001</v>
       </c>
       <c r="L19" s="1">
-        <v>4.060039</v>
+        <v>4.0600389999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>938.013000</v>
+        <v>938.01300000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.117000</v>
+        <v>-120.117</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>14626.678662</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.062966</v>
+        <v>4.0629660000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>944.914000</v>
+        <v>944.91399999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.636000</v>
+        <v>-103.636</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>14637.152649</v>
       </c>
       <c r="V19" s="1">
-        <v>4.065876</v>
+        <v>4.0658760000000003</v>
       </c>
       <c r="W19" s="1">
-        <v>951.346000</v>
+        <v>951.346</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.567000</v>
+        <v>-88.566999999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>14647.697100</v>
+        <v>14647.697099999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.068805</v>
+        <v>4.0688050000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.423000</v>
+        <v>958.423</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.976500</v>
+        <v>-76.976500000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>14658.118540</v>
+        <v>14658.118539999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.071700</v>
+        <v>4.0716999999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.968000</v>
+        <v>962.96799999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.904100</v>
+        <v>-74.9041</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>14668.722511</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.074645</v>
+        <v>4.0746450000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.160000</v>
+        <v>970.16</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.742300</v>
+        <v>-79.7423</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>14679.505040</v>
+        <v>14679.50504</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.077640</v>
+        <v>4.0776399999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.243000</v>
+        <v>978.24300000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.431200</v>
+        <v>-91.431200000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>14690.530610</v>
+        <v>14690.53061</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.080703</v>
+        <v>4.0807029999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.146000</v>
+        <v>988.14599999999996</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>14701.531381</v>
+        <v>14701.531381000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.083759</v>
+        <v>4.0837589999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>996.406000</v>
+        <v>996.40599999999995</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.941000</v>
+        <v>-124.941</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>14712.581285</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.086828</v>
+        <v>4.0868279999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.465000</v>
+        <v>-197.465</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>14723.216998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.089782</v>
+        <v>4.0897819999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1101.480000</v>
+        <v>1101.48</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.415000</v>
+        <v>-315.41500000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>14734.553031</v>
+        <v>14734.553030999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.092931</v>
+        <v>4.0929310000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.980000</v>
+        <v>-501.98</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>14745.844952</v>
+        <v>14745.844951999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.096068</v>
+        <v>4.0960679999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1331.580000</v>
+        <v>1331.58</v>
       </c>
       <c r="BV19" s="1">
-        <v>-707.161000</v>
+        <v>-707.16099999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>14756.805546</v>
@@ -5075,332 +5491,332 @@
         <v>4.099113</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.110000</v>
+        <v>1469.11</v>
       </c>
       <c r="CA19" s="1">
-        <v>-926.277000</v>
+        <v>-926.27700000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>14769.871656</v>
+        <v>14769.871655999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.102742</v>
+        <v>4.1027420000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.890000</v>
+        <v>1830.89</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1447.940000</v>
+        <v>-1447.94</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>14595.141008</v>
+        <v>14595.141008000001</v>
       </c>
       <c r="B20" s="1">
-        <v>4.054206</v>
+        <v>4.0542059999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>897.752000</v>
+        <v>897.75199999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.591000</v>
+        <v>-200.59100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>14605.988018</v>
       </c>
       <c r="G20" s="1">
-        <v>4.057219</v>
+        <v>4.0572189999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>915.486000</v>
+        <v>915.48599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.392000</v>
+        <v>-169.392</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>14616.487827</v>
+        <v>14616.487827000001</v>
       </c>
       <c r="L20" s="1">
         <v>4.060136</v>
       </c>
       <c r="M20" s="1">
-        <v>938.090000</v>
+        <v>938.09</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.926000</v>
+        <v>-119.926</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>14627.030313</v>
+        <v>14627.030312999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.063064</v>
+        <v>4.0630639999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>944.899000</v>
+        <v>944.899</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.657000</v>
+        <v>-103.657</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>14637.496871</v>
+        <v>14637.496870999999</v>
       </c>
       <c r="V20" s="1">
-        <v>4.065971</v>
+        <v>4.0659710000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>951.303000</v>
+        <v>951.303</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.563600</v>
+        <v>-88.563599999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>14648.112440</v>
+        <v>14648.112440000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.068920</v>
+        <v>4.0689200000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.348000</v>
+        <v>958.34799999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.923000</v>
+        <v>-76.923000000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>14658.544956</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.071818</v>
+        <v>4.0718180000000004</v>
       </c>
       <c r="AG20" s="1">
-        <v>962.914000</v>
+        <v>962.91399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.890000</v>
+        <v>-74.89</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>14669.002256</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.074723</v>
+        <v>4.0747229999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.153000</v>
+        <v>970.15300000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.757300</v>
+        <v>-79.757300000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>14679.866128</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.077741</v>
+        <v>4.0777409999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.240000</v>
+        <v>978.24</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.440900</v>
+        <v>-91.440899999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>14690.895704</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.080804</v>
+        <v>4.0808039999999997</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.147000</v>
+        <v>988.14700000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.178000</v>
+        <v>-109.178</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>14701.888002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.083858</v>
+        <v>4.0838580000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>996.414000</v>
+        <v>996.41399999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.925000</v>
+        <v>-124.925</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>14713.303428</v>
+        <v>14713.303427999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.087029</v>
+        <v>4.0870290000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.451000</v>
+        <v>-197.45099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>14723.964437</v>
+        <v>14723.964437000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.089990</v>
+        <v>4.0899900000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1101.460000</v>
+        <v>1101.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.422000</v>
+        <v>-315.42200000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>14734.959783</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.093044</v>
+        <v>4.0930439999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1209.680000</v>
+        <v>1209.68</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.975000</v>
+        <v>-501.97500000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>14746.258616</v>
+        <v>14746.258615999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.096183</v>
+        <v>4.0961829999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1331.610000</v>
+        <v>1331.61</v>
       </c>
       <c r="BV20" s="1">
-        <v>-707.245000</v>
+        <v>-707.245</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>14757.254426</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.099237</v>
+        <v>4.0992369999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1469.190000</v>
+        <v>1469.19</v>
       </c>
       <c r="CA20" s="1">
-        <v>-926.304000</v>
+        <v>-926.30399999999997</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>14770.695048</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.102971</v>
+        <v>4.1029710000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1831.990000</v>
+        <v>1831.99</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1446.890000</v>
+        <v>-1446.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>14595.513007</v>
       </c>
       <c r="B21" s="1">
-        <v>4.054309</v>
+        <v>4.0543089999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>897.801000</v>
+        <v>897.80100000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.600000</v>
+        <v>-200.6</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>14606.334721</v>
+        <v>14606.334720999999</v>
       </c>
       <c r="G21" s="1">
         <v>4.057315</v>
       </c>
       <c r="H21" s="1">
-        <v>915.347000</v>
+        <v>915.34699999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.658000</v>
+        <v>-169.65799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>14616.835556</v>
       </c>
       <c r="L21" s="1">
-        <v>4.060232</v>
+        <v>4.0602320000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>938.162000</v>
+        <v>938.16200000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.054000</v>
+        <v>-120.054</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>14627.378021</v>
@@ -5409,542 +5825,542 @@
         <v>4.063161</v>
       </c>
       <c r="R21" s="1">
-        <v>944.855000</v>
+        <v>944.85500000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.662000</v>
+        <v>-103.66200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>14637.919465</v>
+        <v>14637.919465000001</v>
       </c>
       <c r="V21" s="1">
-        <v>4.066089</v>
+        <v>4.0660889999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>951.273000</v>
+        <v>951.27300000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.577700</v>
+        <v>-88.577699999999993</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>14648.401417</v>
+        <v>14648.401416999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.069000</v>
+        <v>4.069</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.362000</v>
+        <v>958.36199999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.921800</v>
+        <v>-76.921800000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>14658.825835</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.071896</v>
+        <v>4.0718959999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.954000</v>
+        <v>962.95399999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.892400</v>
+        <v>-74.892399999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>14669.350478</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.074820</v>
+        <v>4.0748199999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.163000</v>
+        <v>970.16300000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.716400</v>
+        <v>-79.716399999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>14680.227215</v>
+        <v>14680.227215000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.077841</v>
+        <v>4.0778410000000003</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.240000</v>
+        <v>978.24</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.440100</v>
+        <v>-91.440100000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>14691.262208</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.080906</v>
+        <v>4.0809059999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>988.146000</v>
+        <v>988.14599999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.179000</v>
+        <v>-109.179</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>14702.606706</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.084057</v>
+        <v>4.0840569999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>996.428000</v>
+        <v>996.428</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.922000</v>
+        <v>-124.922</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>14713.663060</v>
+        <v>14713.663060000001</v>
       </c>
       <c r="BE21" s="1">
         <v>4.087129</v>
       </c>
       <c r="BF21" s="1">
-        <v>1034.940000</v>
+        <v>1034.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.459000</v>
+        <v>-197.459</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>14724.340933</v>
+        <v>14724.340932999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.090095</v>
+        <v>4.0900949999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1101.470000</v>
+        <v>1101.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.436000</v>
+        <v>-315.43599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>14735.358534</v>
+        <v>14735.358534000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.093155</v>
+        <v>4.0931550000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.943000</v>
+        <v>-501.94299999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>14746.975368</v>
+        <v>14746.975367999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.096382</v>
+        <v>4.0963820000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1331.680000</v>
+        <v>1331.68</v>
       </c>
       <c r="BV21" s="1">
-        <v>-707.356000</v>
+        <v>-707.35599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>14757.990489</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.099442</v>
+        <v>4.0994419999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1469.200000</v>
+        <v>1469.2</v>
       </c>
       <c r="CA21" s="1">
-        <v>-926.305000</v>
+        <v>-926.30499999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>14770.943511</v>
+        <v>14770.943510999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.103040</v>
+        <v>4.10304</v>
       </c>
       <c r="CE21" s="1">
-        <v>1830.700000</v>
+        <v>1830.7</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1446.400000</v>
+        <v>-1446.4</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>14595.855743</v>
       </c>
       <c r="B22" s="1">
-        <v>4.054404</v>
+        <v>4.0544039999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>897.854000</v>
+        <v>897.85400000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.417000</v>
+        <v>-200.417</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>14606.676960</v>
+        <v>14606.676960000001</v>
       </c>
       <c r="G22" s="1">
-        <v>4.057410</v>
+        <v>4.05741</v>
       </c>
       <c r="H22" s="1">
-        <v>915.449000</v>
+        <v>915.44899999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.413000</v>
+        <v>-169.41300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>14617.249187</v>
+        <v>14617.249186999999</v>
       </c>
       <c r="L22" s="1">
-        <v>4.060347</v>
+        <v>4.0603470000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>938.252000</v>
+        <v>938.25199999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.932000</v>
+        <v>-119.932</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>14627.814364</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.063282</v>
+        <v>4.0632820000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>944.829000</v>
+        <v>944.82899999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.678000</v>
+        <v>-103.678</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>14638.208166</v>
       </c>
       <c r="V22" s="1">
-        <v>4.066169</v>
+        <v>4.0661690000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>951.305000</v>
+        <v>951.30499999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.661200</v>
+        <v>-88.661199999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>14648.763994</v>
+        <v>14648.763994000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.069101</v>
+        <v>4.0691009999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.284000</v>
+        <v>958.28399999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.019900</v>
+        <v>-77.019900000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>14659.165100</v>
+        <v>14659.1651</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.071990</v>
+        <v>4.0719900000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>962.992000</v>
+        <v>962.99199999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.875900</v>
+        <v>-74.875900000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>14669.691198</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.074914</v>
+        <v>4.0749139999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.138000</v>
+        <v>970.13800000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.686600</v>
+        <v>-79.686599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>14680.945422</v>
+        <v>14680.945422000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.078040</v>
+        <v>4.0780399999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.245000</v>
+        <v>978.245</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.428200</v>
+        <v>-91.428200000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>14691.989347</v>
+        <v>14691.989347000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.081108</v>
+        <v>4.0811080000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.153000</v>
+        <v>988.15300000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>14702.963329</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.084156</v>
+        <v>4.0841560000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>996.412000</v>
+        <v>996.41200000000003</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.926000</v>
+        <v>-124.926</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>14714.022635</v>
+        <v>14714.022634999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.087229</v>
+        <v>4.0872289999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.470000</v>
+        <v>-197.47</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>14724.717398</v>
+        <v>14724.717398000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.090199</v>
+        <v>4.0901990000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1101.440000</v>
+        <v>1101.44</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.435000</v>
+        <v>-315.435</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>14736.091649</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.093359</v>
+        <v>4.0933590000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.932000</v>
+        <v>-501.93200000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>14747.102808</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.096417</v>
+        <v>4.0964169999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1331.670000</v>
+        <v>1331.67</v>
       </c>
       <c r="BV22" s="1">
-        <v>-707.466000</v>
+        <v>-707.46600000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>14758.124904</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.099479</v>
+        <v>4.0994789999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1469.210000</v>
+        <v>1469.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-926.232000</v>
+        <v>-926.23199999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>14771.475719</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.103188</v>
+        <v>4.1031880000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.150000</v>
+        <v>1831.15</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1447.870000</v>
+        <v>-1447.87</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>14596.195542</v>
+        <v>14596.195541999999</v>
       </c>
       <c r="B23" s="1">
-        <v>4.054499</v>
+        <v>4.0544989999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>897.634000</v>
+        <v>897.63400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.640000</v>
+        <v>-200.64</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>14607.097568</v>
+        <v>14607.097567999999</v>
       </c>
       <c r="G23" s="1">
-        <v>4.057527</v>
+        <v>4.0575270000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>915.055000</v>
+        <v>915.05499999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.568000</v>
+        <v>-169.56800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>14617.522978</v>
+        <v>14617.522978000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.060423</v>
+        <v>4.0604230000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>938.132000</v>
+        <v>938.13199999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.853000</v>
+        <v>-119.85299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>14628.086276</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.063357</v>
+        <v>4.0633569999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>944.880000</v>
+        <v>944.88</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.653000</v>
+        <v>-103.65300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>14638.551862</v>
       </c>
       <c r="V23" s="1">
-        <v>4.066264</v>
+        <v>4.0662640000000003</v>
       </c>
       <c r="W23" s="1">
-        <v>951.290000</v>
+        <v>951.29</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.540100</v>
+        <v>-88.540099999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>14649.110201</v>
@@ -5953,73 +6369,73 @@
         <v>4.069197</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.262000</v>
+        <v>958.26199999999994</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.018300</v>
+        <v>-77.018299999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>14659.512299</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.072087</v>
+        <v>4.0720869999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>962.972000</v>
+        <v>962.97199999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.900800</v>
+        <v>-74.900800000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>14670.397502</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.075110</v>
+        <v>4.0751099999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.158000</v>
+        <v>970.15800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.707900</v>
+        <v>-79.707899999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>14681.303069</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.078140</v>
+        <v>4.0781400000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.259000</v>
+        <v>978.25900000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.457200</v>
+        <v>-91.4572</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>14692.383665</v>
+        <v>14692.383664999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.081218</v>
+        <v>4.0812179999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.147000</v>
+        <v>988.14700000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.183000</v>
+        <v>-109.18300000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>14703.325905</v>
@@ -6028,587 +6444,587 @@
         <v>4.084257</v>
       </c>
       <c r="BA23" s="1">
-        <v>996.433000</v>
+        <v>996.43299999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.914000</v>
+        <v>-124.914</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>14714.696690</v>
+        <v>14714.696690000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.087416</v>
+        <v>4.0874160000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.445000</v>
+        <v>-197.44499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>14725.398899</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.090389</v>
+        <v>4.0903890000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1101.470000</v>
+        <v>1101.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.412000</v>
+        <v>-315.41199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>14736.597578</v>
+        <v>14736.597578000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.093499</v>
+        <v>4.0934990000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1209.710000</v>
+        <v>1209.71</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.975000</v>
+        <v>-501.97500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>14747.540774</v>
+        <v>14747.540773999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.096539</v>
+        <v>4.0965389999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="BV23" s="1">
-        <v>-707.507000</v>
+        <v>-707.50699999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>14758.552497</v>
+        <v>14758.552497000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.099598</v>
+        <v>4.0995980000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.100000</v>
+        <v>1469.1</v>
       </c>
       <c r="CA23" s="1">
-        <v>-926.319000</v>
+        <v>-926.31899999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>14772.015862</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.103338</v>
+        <v>4.1033379999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1446.360000</v>
+        <v>-1446.36</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>14596.897379</v>
       </c>
       <c r="B24" s="1">
-        <v>4.054694</v>
+        <v>4.0546939999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>897.870000</v>
+        <v>897.87</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.566000</v>
+        <v>-200.566</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>14607.372848</v>
+        <v>14607.372848000001</v>
       </c>
       <c r="G24" s="1">
-        <v>4.057604</v>
+        <v>4.0576040000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>915.376000</v>
+        <v>915.37599999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.535000</v>
+        <v>-169.535</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>14617.874146</v>
       </c>
       <c r="L24" s="1">
-        <v>4.060521</v>
+        <v>4.0605209999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>938.210000</v>
+        <v>938.21</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.041000</v>
+        <v>-120.041</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>14628.435956</v>
+        <v>14628.435955999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.063454</v>
+        <v>4.0634540000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>944.884000</v>
+        <v>944.88400000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.621000</v>
+        <v>-103.621</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>14638.894598</v>
+        <v>14638.894598000001</v>
       </c>
       <c r="V24" s="1">
-        <v>4.066360</v>
+        <v>4.0663600000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>951.260000</v>
+        <v>951.26</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.570900</v>
+        <v>-88.570899999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>14649.803608</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.069390</v>
+        <v>4.0693900000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.446000</v>
+        <v>958.44600000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.040500</v>
+        <v>-77.040499999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>14660.199292</v>
+        <v>14660.199291999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.072278</v>
+        <v>4.0722779999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.976000</v>
+        <v>962.976</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.894300</v>
+        <v>-74.894300000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>14670.743708</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.075207</v>
+        <v>4.0752069999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.170000</v>
+        <v>970.17</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.707400</v>
+        <v>-79.707400000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>14681.664127</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.078240</v>
+        <v>4.0782400000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.241000</v>
+        <v>978.24099999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.422400</v>
+        <v>-91.422399999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>14692.749749</v>
+        <v>14692.749749000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.081319</v>
+        <v>4.0813189999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.151000</v>
+        <v>988.15099999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.180000</v>
+        <v>-109.18</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>14703.995505</v>
+        <v>14703.995505000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.084443</v>
+        <v>4.0844430000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>996.418000</v>
+        <v>996.41800000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.942000</v>
+        <v>-124.94199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>14715.142593</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.087540</v>
+        <v>4.0875399999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.439000</v>
+        <v>-197.43899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>14725.511461</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.090420</v>
+        <v>4.0904199999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1101.490000</v>
+        <v>1101.49</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.417000</v>
+        <v>-315.41699999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>14737.015700</v>
+        <v>14737.0157</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.093615</v>
+        <v>4.0936149999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.988000</v>
+        <v>-501.988</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>14747.971302</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.096659</v>
+        <v>4.0966589999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1331.860000</v>
+        <v>1331.86</v>
       </c>
       <c r="BV24" s="1">
-        <v>-707.522000</v>
+        <v>-707.52200000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>14758.971111</v>
+        <v>14758.971111000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.099714</v>
+        <v>4.0997139999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1469.110000</v>
+        <v>1469.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-926.306000</v>
+        <v>-926.30600000000004</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>14772.556005</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.103488</v>
+        <v>4.1034879999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>1830.410000</v>
+        <v>1830.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1447.300000</v>
+        <v>-1447.3</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>14597.240613</v>
       </c>
       <c r="B25" s="1">
-        <v>4.054789</v>
+        <v>4.0547890000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>897.897000</v>
+        <v>897.89700000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.776000</v>
+        <v>-200.77600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>14607.721040</v>
+        <v>14607.72104</v>
       </c>
       <c r="G25" s="1">
-        <v>4.057700</v>
+        <v>4.0576999999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>915.748000</v>
+        <v>915.74800000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.606000</v>
+        <v>-169.60599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>14618.219363</v>
       </c>
       <c r="L25" s="1">
-        <v>4.060616</v>
+        <v>4.0606159999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>938.155000</v>
+        <v>938.15499999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.179000</v>
+        <v>-120.179</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>14628.787621</v>
+        <v>14628.787620999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.063552</v>
+        <v>4.0635519999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>944.911000</v>
+        <v>944.91099999999994</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.666000</v>
+        <v>-103.666</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>14639.584037</v>
+        <v>14639.584037000001</v>
       </c>
       <c r="V25" s="1">
-        <v>4.066551</v>
+        <v>4.0665509999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>951.243000</v>
+        <v>951.24300000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.624400</v>
+        <v>-88.624399999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>14650.154775</v>
+        <v>14650.154775000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.069487</v>
+        <v>4.0694869999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.281000</v>
+        <v>958.28099999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.055000</v>
+        <v>-77.055000000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>14660.543481</v>
+        <v>14660.543481000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.072373</v>
+        <v>4.0723729999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.974000</v>
+        <v>962.97400000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.902500</v>
+        <v>-74.902500000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>14671.095371</v>
+        <v>14671.095370999999</v>
       </c>
       <c r="AK25" s="1">
         <v>4.075304</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.151000</v>
+        <v>970.15099999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.732400</v>
+        <v>-79.732399999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>14682.329758</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.078425</v>
+        <v>4.0784250000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.246000</v>
+        <v>978.24599999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.424700</v>
+        <v>-91.424700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>14693.419344</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.081505</v>
+        <v>4.0815049999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.143000</v>
+        <v>988.14300000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.197000</v>
+        <v>-109.197</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>14704.398753</v>
+        <v>14704.398752999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.084555</v>
+        <v>4.0845549999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>996.409000</v>
+        <v>996.40899999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.936000</v>
+        <v>-124.93600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>14715.502720</v>
+        <v>14715.50272</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.087640</v>
+        <v>4.0876400000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.950000</v>
+        <v>1034.95</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.474000</v>
+        <v>-197.47399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>14725.876052</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.090521</v>
+        <v>4.0905209999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1101.440000</v>
+        <v>1101.44</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.445000</v>
+        <v>-315.44499999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>14737.410019</v>
+        <v>14737.410019000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.093725</v>
+        <v>4.0937250000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1209.670000</v>
+        <v>1209.67</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.941000</v>
+        <v>-501.94099999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>14748.395381</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.096776</v>
+        <v>4.0967760000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1332.010000</v>
+        <v>1332.01</v>
       </c>
       <c r="BV25" s="1">
-        <v>-707.486000</v>
+        <v>-707.48599999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>14759.414008</v>
@@ -6617,135 +7033,135 @@
         <v>4.099837</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1469.180000</v>
+        <v>1469.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-926.343000</v>
+        <v>-926.34299999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>14773.096186</v>
+        <v>14773.096186000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.103638</v>
+        <v>4.1036380000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1832.250000</v>
+        <v>1832.25</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1447.480000</v>
+        <v>-1447.48</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>14597.583812</v>
+        <v>14597.583812000001</v>
       </c>
       <c r="B26" s="1">
-        <v>4.054884</v>
+        <v>4.0548840000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>897.786000</v>
+        <v>897.78599999999994</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.683000</v>
+        <v>-200.68299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>14608.064271</v>
+        <v>14608.064270999999</v>
       </c>
       <c r="G26" s="1">
-        <v>4.057796</v>
+        <v>4.0577959999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>914.950000</v>
+        <v>914.95</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.563000</v>
+        <v>-169.56299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>14618.910822</v>
       </c>
       <c r="L26" s="1">
-        <v>4.060809</v>
+        <v>4.0608089999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>938.374000</v>
+        <v>938.37400000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.923000</v>
+        <v>-119.923</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>14629.478547</v>
+        <v>14629.478547000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.063744</v>
+        <v>4.0637439999999998</v>
       </c>
       <c r="R26" s="1">
-        <v>944.869000</v>
+        <v>944.86900000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.634000</v>
+        <v>-103.634</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>14639.927269</v>
       </c>
       <c r="V26" s="1">
-        <v>4.066646</v>
+        <v>4.0666460000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>951.274000</v>
+        <v>951.274</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.516000</v>
+        <v>-88.516000000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>14650.503464</v>
+        <v>14650.503463999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.069584</v>
+        <v>4.0695839999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.260000</v>
+        <v>958.26</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.995600</v>
+        <v>-76.995599999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>14660.884233</v>
+        <v>14660.884233000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.072468</v>
+        <v>4.0724679999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.973000</v>
+        <v>962.97299999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.868400</v>
+        <v>-74.868399999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>14671.756539</v>
@@ -6754,150 +7170,151 @@
         <v>4.075488</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.156000</v>
+        <v>970.15599999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.726100</v>
+        <v>-79.726100000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>14682.773181</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.078548</v>
+        <v>4.0785479999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.257000</v>
+        <v>978.25699999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.411500</v>
+        <v>-91.411500000000004</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>14693.841901</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.081623</v>
+        <v>4.0816229999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.167000</v>
+        <v>988.16700000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>14704.781664</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.084662</v>
+        <v>4.0846619999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>996.407000</v>
+        <v>996.40700000000004</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.938000</v>
+        <v>-124.938</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>14715.867249</v>
+        <v>14715.867249000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.087741</v>
+        <v>4.0877410000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.960000</v>
+        <v>1034.96</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.454000</v>
+        <v>-197.45400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>14726.251523</v>
+        <v>14726.251523000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.090625</v>
+        <v>4.0906250000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1101.460000</v>
+        <v>1101.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.421000</v>
+        <v>-315.42099999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>14737.835061</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.093843</v>
+        <v>4.0938429999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1209.690000</v>
+        <v>1209.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.978000</v>
+        <v>-501.97800000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>14748.811028</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.096892</v>
+        <v>4.0968920000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1332.090000</v>
+        <v>1332.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-707.447000</v>
+        <v>-707.447</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>14759.839575</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.099955</v>
+        <v>4.0999549999999996</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1469.140000</v>
+        <v>1469.14</v>
       </c>
       <c r="CA26" s="1">
-        <v>-926.262000</v>
+        <v>-926.26199999999994</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>14773.637284</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.103788</v>
+        <v>4.1037879999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.330000</v>
+        <v>1830.33</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1446.420000</v>
+        <v>-1446.42</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>